--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H2">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I2">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J2">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1828774683312</v>
+        <v>1.446352</v>
       </c>
       <c r="N2">
-        <v>1.1828774683312</v>
+        <v>4.339056</v>
       </c>
       <c r="O2">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780245</v>
       </c>
       <c r="P2">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780246</v>
       </c>
       <c r="Q2">
-        <v>2.544410957806126</v>
+        <v>1.783343820005333</v>
       </c>
       <c r="R2">
-        <v>2.544410957806126</v>
+        <v>16.050094380048</v>
       </c>
       <c r="S2">
-        <v>0.02364963558281043</v>
+        <v>0.00874021924953414</v>
       </c>
       <c r="T2">
-        <v>0.02364963558281043</v>
+        <v>0.008740219249534142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H3">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I3">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J3">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.93535212315079</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N3">
-        <v>4.93535212315079</v>
+        <v>16.859836</v>
       </c>
       <c r="O3">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="P3">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="Q3">
-        <v>10.616115666226</v>
+        <v>6.929360749643111</v>
       </c>
       <c r="R3">
-        <v>10.616115666226</v>
+        <v>62.36424674678801</v>
       </c>
       <c r="S3">
-        <v>0.09867402356563032</v>
+        <v>0.03396099592888147</v>
       </c>
       <c r="T3">
-        <v>0.09867402356563032</v>
+        <v>0.03396099592888147</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H4">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I4">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J4">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20289579126739</v>
+        <v>2.371955333333334</v>
       </c>
       <c r="N4">
-        <v>2.20289579126739</v>
+        <v>7.115866</v>
       </c>
       <c r="O4">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="P4">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="Q4">
-        <v>4.738506176902129</v>
+        <v>2.924607484919778</v>
       </c>
       <c r="R4">
-        <v>4.738506176902129</v>
+        <v>26.321467364278</v>
       </c>
       <c r="S4">
-        <v>0.04404317783132675</v>
+        <v>0.01433358522920781</v>
       </c>
       <c r="T4">
-        <v>0.04404317783132675</v>
+        <v>0.01433358522920781</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H5">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I5">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J5">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.98154366241822</v>
+        <v>5.306061</v>
       </c>
       <c r="N5">
-        <v>3.98154366241822</v>
+        <v>15.918183</v>
       </c>
       <c r="O5">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="P5">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="Q5">
-        <v>8.564440184943916</v>
+        <v>6.542343145320999</v>
       </c>
       <c r="R5">
-        <v>8.564440184943916</v>
+        <v>58.881088307889</v>
       </c>
       <c r="S5">
-        <v>0.07960423559853826</v>
+        <v>0.03206421154145213</v>
       </c>
       <c r="T5">
-        <v>0.07960423559853826</v>
+        <v>0.03206421154145213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H6">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I6">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J6">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.7483589622169</v>
+        <v>9.866195333333334</v>
       </c>
       <c r="N6">
-        <v>8.7483589622169</v>
+        <v>29.598586</v>
       </c>
       <c r="O6">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="P6">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="Q6">
-        <v>18.81802722786632</v>
+        <v>12.16496293755978</v>
       </c>
       <c r="R6">
-        <v>18.81802722786632</v>
+        <v>109.484666438038</v>
       </c>
       <c r="S6">
-        <v>0.174908650255999</v>
+        <v>0.05962083253043789</v>
       </c>
       <c r="T6">
-        <v>0.174908650255999</v>
+        <v>0.05962083253043789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.15103510374221</v>
+        <v>1.232994333333333</v>
       </c>
       <c r="H7">
-        <v>2.15103510374221</v>
+        <v>3.698983</v>
       </c>
       <c r="I7">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="J7">
-        <v>0.4638108540709669</v>
+        <v>0.1643301600451615</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.14727485554696</v>
+        <v>2.583231666666667</v>
       </c>
       <c r="N7">
-        <v>2.14727485554696</v>
+        <v>7.749695</v>
       </c>
       <c r="O7">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="P7">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="Q7">
-        <v>4.618863591664494</v>
+        <v>3.185110006687222</v>
       </c>
       <c r="R7">
-        <v>4.618863591664494</v>
+        <v>28.665990060185</v>
       </c>
       <c r="S7">
-        <v>0.04293113123666223</v>
+        <v>0.01561031556564803</v>
       </c>
       <c r="T7">
-        <v>0.04293113123666223</v>
+        <v>0.01561031556564803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H8">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I8">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J8">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1828774683312</v>
+        <v>1.446352</v>
       </c>
       <c r="N8">
-        <v>1.1828774683312</v>
+        <v>4.339056</v>
       </c>
       <c r="O8">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780245</v>
       </c>
       <c r="P8">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780246</v>
       </c>
       <c r="Q8">
-        <v>0.6866623920422444</v>
+        <v>3.122850905061333</v>
       </c>
       <c r="R8">
-        <v>0.6866623920422444</v>
+        <v>28.105658145552</v>
       </c>
       <c r="S8">
-        <v>0.006382347666912292</v>
+        <v>0.01530518192154362</v>
       </c>
       <c r="T8">
-        <v>0.006382347666912292</v>
+        <v>0.01530518192154363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H9">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I9">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J9">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.93535212315079</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N9">
-        <v>4.93535212315079</v>
+        <v>16.859836</v>
       </c>
       <c r="O9">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="P9">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="Q9">
-        <v>2.864980342583218</v>
+        <v>12.13414948131244</v>
       </c>
       <c r="R9">
-        <v>2.864980342583218</v>
+        <v>109.207345331812</v>
       </c>
       <c r="S9">
-        <v>0.02662924432318502</v>
+        <v>0.05946981489692467</v>
       </c>
       <c r="T9">
-        <v>0.02662924432318502</v>
+        <v>0.05946981489692467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H10">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I10">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J10">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.20289579126739</v>
+        <v>2.371955333333334</v>
       </c>
       <c r="N10">
-        <v>2.20289579126739</v>
+        <v>7.115866</v>
       </c>
       <c r="O10">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="P10">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="Q10">
-        <v>1.278784771837353</v>
+        <v>5.121341733869111</v>
       </c>
       <c r="R10">
-        <v>1.278784771837353</v>
+        <v>46.092075604822</v>
       </c>
       <c r="S10">
-        <v>0.01188597060157181</v>
+        <v>0.02509984283662782</v>
       </c>
       <c r="T10">
-        <v>0.01188597060157181</v>
+        <v>0.02509984283662782</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H11">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I11">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J11">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.98154366241822</v>
+        <v>5.306061</v>
       </c>
       <c r="N11">
-        <v>3.98154366241822</v>
+        <v>15.918183</v>
       </c>
       <c r="O11">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="P11">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="Q11">
-        <v>2.311292900957712</v>
+        <v>11.456434807129</v>
       </c>
       <c r="R11">
-        <v>2.311292900957712</v>
+        <v>103.107913264161</v>
       </c>
       <c r="S11">
-        <v>0.02148286410459314</v>
+        <v>0.05614831582616658</v>
       </c>
       <c r="T11">
-        <v>0.02148286410459314</v>
+        <v>0.05614831582616658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H12">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I12">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J12">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.7483589622169</v>
+        <v>9.866195333333334</v>
       </c>
       <c r="N12">
-        <v>8.7483589622169</v>
+        <v>29.598586</v>
       </c>
       <c r="O12">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="P12">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="Q12">
-        <v>5.078437329535881</v>
+        <v>21.30232268922911</v>
       </c>
       <c r="R12">
-        <v>5.078437329535881</v>
+        <v>191.720904203062</v>
       </c>
       <c r="S12">
-        <v>0.04720274914914747</v>
+        <v>0.1044032949449037</v>
       </c>
       <c r="T12">
-        <v>0.04720274914914747</v>
+        <v>0.1044032949449037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5805017091169939</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H13">
-        <v>0.5805017091169939</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I13">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="J13">
-        <v>0.1251690374679614</v>
+        <v>0.2877620026318713</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.14727485554696</v>
+        <v>2.583231666666667</v>
       </c>
       <c r="N13">
-        <v>2.14727485554696</v>
+        <v>7.749695</v>
       </c>
       <c r="O13">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="P13">
-        <v>0.09256172178776438</v>
+        <v>0.09499361262325784</v>
       </c>
       <c r="Q13">
-        <v>1.246496723588957</v>
+        <v>5.577513183673888</v>
       </c>
       <c r="R13">
-        <v>1.246496723588957</v>
+        <v>50.19761865306499</v>
       </c>
       <c r="S13">
-        <v>0.0115858616225517</v>
+        <v>0.02733555220570489</v>
       </c>
       <c r="T13">
-        <v>0.0115858616225517</v>
+        <v>0.02733555220570489</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.90620524268373</v>
+        <v>0.6462516666666667</v>
       </c>
       <c r="H14">
-        <v>1.90620524268373</v>
+        <v>1.938755</v>
       </c>
       <c r="I14">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="J14">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1828774683312</v>
+        <v>1.446352</v>
       </c>
       <c r="N14">
-        <v>1.1828774683312</v>
+        <v>4.339056</v>
       </c>
       <c r="O14">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780245</v>
       </c>
       <c r="P14">
-        <v>0.0509898278042278</v>
+        <v>0.05318694539780246</v>
       </c>
       <c r="Q14">
-        <v>2.254807231585391</v>
+        <v>0.9347073905866667</v>
       </c>
       <c r="R14">
-        <v>2.254807231585391</v>
+        <v>8.41236651528</v>
       </c>
       <c r="S14">
-        <v>0.02095784455450508</v>
+        <v>0.004581027750365591</v>
       </c>
       <c r="T14">
-        <v>0.02095784455450508</v>
+        <v>0.004581027750365591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.90620524268373</v>
+        <v>0.6462516666666667</v>
       </c>
       <c r="H15">
-        <v>1.90620524268373</v>
+        <v>1.938755</v>
       </c>
       <c r="I15">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="J15">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.93535212315079</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N15">
-        <v>4.93535212315079</v>
+        <v>16.859836</v>
       </c>
       <c r="O15">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="P15">
-        <v>0.2127462578754838</v>
+        <v>0.2066631951161506</v>
       </c>
       <c r="Q15">
-        <v>9.407794091640314</v>
+        <v>3.631899038242222</v>
       </c>
       <c r="R15">
-        <v>9.407794091640314</v>
+        <v>32.68709134418</v>
       </c>
       <c r="S15">
-        <v>0.08744298998666845</v>
+        <v>0.01780004143357744</v>
       </c>
       <c r="T15">
-        <v>0.08744298998666845</v>
+        <v>0.01780004143357744</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.90620524268373</v>
+        <v>0.6462516666666667</v>
       </c>
       <c r="H16">
-        <v>1.90620524268373</v>
+        <v>1.938755</v>
       </c>
       <c r="I16">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="J16">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.20289579126739</v>
+        <v>2.371955333333334</v>
       </c>
       <c r="N16">
-        <v>2.20289579126739</v>
+        <v>7.115866</v>
       </c>
       <c r="O16">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="P16">
-        <v>0.09495935130614208</v>
+        <v>0.08722431247720218</v>
       </c>
       <c r="Q16">
-        <v>4.199171506399822</v>
+        <v>1.532880087425556</v>
       </c>
       <c r="R16">
-        <v>4.199171506399822</v>
+        <v>13.79592078683</v>
       </c>
       <c r="S16">
-        <v>0.03903020287324352</v>
+        <v>0.007512689307048123</v>
       </c>
       <c r="T16">
-        <v>0.03903020287324352</v>
+        <v>0.007512689307048123</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.90620524268373</v>
+        <v>0.6462516666666667</v>
       </c>
       <c r="H17">
-        <v>1.90620524268373</v>
+        <v>1.938755</v>
       </c>
       <c r="I17">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="J17">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.98154366241822</v>
+        <v>5.306061</v>
       </c>
       <c r="N17">
-        <v>3.98154366241822</v>
+        <v>15.918183</v>
       </c>
       <c r="O17">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="P17">
-        <v>0.1716308165275454</v>
+        <v>0.1951206737256277</v>
       </c>
       <c r="Q17">
-        <v>7.589639403275791</v>
+        <v>3.429050764685</v>
       </c>
       <c r="R17">
-        <v>7.589639403275791</v>
+        <v>30.861456882165</v>
       </c>
       <c r="S17">
-        <v>0.07054371682441399</v>
+        <v>0.01680587622247737</v>
       </c>
       <c r="T17">
-        <v>0.07054371682441399</v>
+        <v>0.01680587622247737</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.90620524268373</v>
+        <v>0.6462516666666667</v>
       </c>
       <c r="H18">
-        <v>1.90620524268373</v>
+        <v>1.938755</v>
       </c>
       <c r="I18">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="J18">
-        <v>0.4110201084610716</v>
+        <v>0.08613067955120557</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.7483589622169</v>
+        <v>9.866195333333334</v>
       </c>
       <c r="N18">
-        <v>8.7483589622169</v>
+        <v>29.598586</v>
       </c>
       <c r="O18">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="P18">
-        <v>0.3771120246988366</v>
+        <v>0.3628112606599592</v>
       </c>
       <c r="Q18">
-        <v>16.67616771865705</v>
+        <v>6.376045177825556</v>
       </c>
       <c r="R18">
-        <v>16.67616771865705</v>
+        <v>57.38440660043</v>
       </c>
       <c r="S18">
-        <v>0.1550006252936901</v>
+        <v>0.03124918042947186</v>
       </c>
       <c r="T18">
-        <v>0.1550006252936901</v>
+        <v>0.03124918042947186</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6462516666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.938755</v>
+      </c>
+      <c r="I19">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="J19">
+        <v>0.08613067955120557</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.583231666666667</v>
+      </c>
+      <c r="N19">
+        <v>7.749695</v>
+      </c>
+      <c r="O19">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="P19">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="Q19">
+        <v>1.669417769969445</v>
+      </c>
+      <c r="R19">
+        <v>15.024759929725</v>
+      </c>
+      <c r="S19">
+        <v>0.008181864408265177</v>
+      </c>
+      <c r="T19">
+        <v>0.008181864408265177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.312594</v>
+      </c>
+      <c r="H20">
+        <v>3.937782</v>
+      </c>
+      <c r="I20">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J20">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.446352</v>
+      </c>
+      <c r="N20">
+        <v>4.339056</v>
+      </c>
+      <c r="O20">
+        <v>0.05318694539780245</v>
+      </c>
+      <c r="P20">
+        <v>0.05318694539780246</v>
+      </c>
+      <c r="Q20">
+        <v>1.898472957088</v>
+      </c>
+      <c r="R20">
+        <v>17.086256613792</v>
+      </c>
+      <c r="S20">
+        <v>0.009304470454951821</v>
+      </c>
+      <c r="T20">
+        <v>0.009304470454951821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.312594</v>
+      </c>
+      <c r="H21">
+        <v>3.937782</v>
+      </c>
+      <c r="I21">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J21">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.619945333333334</v>
+      </c>
+      <c r="N21">
+        <v>16.859836</v>
+      </c>
+      <c r="O21">
+        <v>0.2066631951161506</v>
+      </c>
+      <c r="P21">
+        <v>0.2066631951161506</v>
+      </c>
+      <c r="Q21">
+        <v>7.376706524861334</v>
+      </c>
+      <c r="R21">
+        <v>66.390358723752</v>
+      </c>
+      <c r="S21">
+        <v>0.03615345041348466</v>
+      </c>
+      <c r="T21">
+        <v>0.03615345041348465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.312594</v>
+      </c>
+      <c r="H22">
+        <v>3.937782</v>
+      </c>
+      <c r="I22">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J22">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.371955333333334</v>
+      </c>
+      <c r="N22">
+        <v>7.115866</v>
+      </c>
+      <c r="O22">
+        <v>0.08722431247720218</v>
+      </c>
+      <c r="P22">
+        <v>0.08722431247720218</v>
+      </c>
+      <c r="Q22">
+        <v>3.113414338801334</v>
+      </c>
+      <c r="R22">
+        <v>28.020729049212</v>
+      </c>
+      <c r="S22">
+        <v>0.01525893303944365</v>
+      </c>
+      <c r="T22">
+        <v>0.01525893303944365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.312594</v>
+      </c>
+      <c r="H23">
+        <v>3.937782</v>
+      </c>
+      <c r="I23">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J23">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.306061</v>
+      </c>
+      <c r="N23">
+        <v>15.918183</v>
+      </c>
+      <c r="O23">
+        <v>0.1951206737256277</v>
+      </c>
+      <c r="P23">
+        <v>0.1951206737256277</v>
+      </c>
+      <c r="Q23">
+        <v>6.964703832234</v>
+      </c>
+      <c r="R23">
+        <v>62.68233449010599</v>
+      </c>
+      <c r="S23">
+        <v>0.03413421339111925</v>
+      </c>
+      <c r="T23">
+        <v>0.03413421339111924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.312594</v>
+      </c>
+      <c r="H24">
+        <v>3.937782</v>
+      </c>
+      <c r="I24">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J24">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9.866195333333334</v>
+      </c>
+      <c r="N24">
+        <v>29.598586</v>
+      </c>
+      <c r="O24">
+        <v>0.3628112606599592</v>
+      </c>
+      <c r="P24">
+        <v>0.3628112606599592</v>
+      </c>
+      <c r="Q24">
+        <v>12.95030879736133</v>
+      </c>
+      <c r="R24">
+        <v>116.552779176252</v>
+      </c>
+      <c r="S24">
+        <v>0.06346983513127062</v>
+      </c>
+      <c r="T24">
+        <v>0.06346983513127062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.312594</v>
+      </c>
+      <c r="H25">
+        <v>3.937782</v>
+      </c>
+      <c r="I25">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="J25">
+        <v>0.1749389889823652</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.583231666666667</v>
+      </c>
+      <c r="N25">
+        <v>7.749695</v>
+      </c>
+      <c r="O25">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="P25">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="Q25">
+        <v>3.390734386276667</v>
+      </c>
+      <c r="R25">
+        <v>30.51660947649</v>
+      </c>
+      <c r="S25">
+        <v>0.01661808655209517</v>
+      </c>
+      <c r="T25">
+        <v>0.01661808655209517</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.287745</v>
+      </c>
+      <c r="I26">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J26">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.446352</v>
+      </c>
+      <c r="N26">
+        <v>4.339056</v>
+      </c>
+      <c r="O26">
+        <v>0.05318694539780245</v>
+      </c>
+      <c r="P26">
+        <v>0.05318694539780246</v>
+      </c>
+      <c r="Q26">
+        <v>0.13872685208</v>
+      </c>
+      <c r="R26">
+        <v>1.24854166872</v>
+      </c>
+      <c r="S26">
+        <v>0.0006799042839497238</v>
+      </c>
+      <c r="T26">
+        <v>0.0006799042839497239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.287745</v>
+      </c>
+      <c r="I27">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J27">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.619945333333334</v>
+      </c>
+      <c r="N27">
+        <v>16.859836</v>
+      </c>
+      <c r="O27">
+        <v>0.2066631951161506</v>
+      </c>
+      <c r="P27">
+        <v>0.2066631951161506</v>
+      </c>
+      <c r="Q27">
+        <v>0.5390370566466667</v>
+      </c>
+      <c r="R27">
+        <v>4.85133350982</v>
+      </c>
+      <c r="S27">
+        <v>0.002641836086717889</v>
+      </c>
+      <c r="T27">
+        <v>0.002641836086717889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.90620524268373</v>
-      </c>
-      <c r="H19">
-        <v>1.90620524268373</v>
-      </c>
-      <c r="I19">
-        <v>0.4110201084610716</v>
-      </c>
-      <c r="J19">
-        <v>0.4110201084610716</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>2.14727485554696</v>
-      </c>
-      <c r="N19">
-        <v>2.14727485554696</v>
-      </c>
-      <c r="O19">
-        <v>0.09256172178776438</v>
-      </c>
-      <c r="P19">
-        <v>0.09256172178776438</v>
-      </c>
-      <c r="Q19">
-        <v>4.093146587126563</v>
-      </c>
-      <c r="R19">
-        <v>4.093146587126563</v>
-      </c>
-      <c r="S19">
-        <v>0.03804472892855045</v>
-      </c>
-      <c r="T19">
-        <v>0.03804472892855045</v>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.287745</v>
+      </c>
+      <c r="I28">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J28">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.371955333333334</v>
+      </c>
+      <c r="N28">
+        <v>7.115866</v>
+      </c>
+      <c r="O28">
+        <v>0.08722431247720218</v>
+      </c>
+      <c r="P28">
+        <v>0.08722431247720218</v>
+      </c>
+      <c r="Q28">
+        <v>0.2275060957966667</v>
+      </c>
+      <c r="R28">
+        <v>2.04755486217</v>
+      </c>
+      <c r="S28">
+        <v>0.001115013905654176</v>
+      </c>
+      <c r="T28">
+        <v>0.001115013905654176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.287745</v>
+      </c>
+      <c r="I29">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J29">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>5.306061</v>
+      </c>
+      <c r="N29">
+        <v>15.918183</v>
+      </c>
+      <c r="O29">
+        <v>0.1951206737256277</v>
+      </c>
+      <c r="P29">
+        <v>0.1951206737256277</v>
+      </c>
+      <c r="Q29">
+        <v>0.508930840815</v>
+      </c>
+      <c r="R29">
+        <v>4.580377567334999</v>
+      </c>
+      <c r="S29">
+        <v>0.002494284658781926</v>
+      </c>
+      <c r="T29">
+        <v>0.002494284658781926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.287745</v>
+      </c>
+      <c r="I30">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J30">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.866195333333334</v>
+      </c>
+      <c r="N30">
+        <v>29.598586</v>
+      </c>
+      <c r="O30">
+        <v>0.3628112606599592</v>
+      </c>
+      <c r="P30">
+        <v>0.3628112606599592</v>
+      </c>
+      <c r="Q30">
+        <v>0.9463161253966665</v>
+      </c>
+      <c r="R30">
+        <v>8.516845128569999</v>
+      </c>
+      <c r="S30">
+        <v>0.004637922492877326</v>
+      </c>
+      <c r="T30">
+        <v>0.004637922492877326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.09591499999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.287745</v>
+      </c>
+      <c r="I31">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="J31">
+        <v>0.01278329257047004</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.583231666666667</v>
+      </c>
+      <c r="N31">
+        <v>7.749695</v>
+      </c>
+      <c r="O31">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="P31">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="Q31">
+        <v>0.2477706653083333</v>
+      </c>
+      <c r="R31">
+        <v>2.229935987775</v>
+      </c>
+      <c r="S31">
+        <v>0.001214331142489001</v>
+      </c>
+      <c r="T31">
+        <v>0.001214331142489001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H32">
+        <v>6.168827</v>
+      </c>
+      <c r="I32">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J32">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.446352</v>
+      </c>
+      <c r="N32">
+        <v>4.339056</v>
+      </c>
+      <c r="O32">
+        <v>0.05318694539780245</v>
+      </c>
+      <c r="P32">
+        <v>0.05318694539780246</v>
+      </c>
+      <c r="Q32">
+        <v>2.974098423034667</v>
+      </c>
+      <c r="R32">
+        <v>26.766885807312</v>
+      </c>
+      <c r="S32">
+        <v>0.01457614173745755</v>
+      </c>
+      <c r="T32">
+        <v>0.01457614173745755</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H33">
+        <v>6.168827</v>
+      </c>
+      <c r="I33">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J33">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.619945333333334</v>
+      </c>
+      <c r="N33">
+        <v>16.859836</v>
+      </c>
+      <c r="O33">
+        <v>0.2066631951161506</v>
+      </c>
+      <c r="P33">
+        <v>0.2066631951161506</v>
+      </c>
+      <c r="Q33">
+        <v>11.55615683693022</v>
+      </c>
+      <c r="R33">
+        <v>104.005411532372</v>
+      </c>
+      <c r="S33">
+        <v>0.05663705635656452</v>
+      </c>
+      <c r="T33">
+        <v>0.05663705635656452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H34">
+        <v>6.168827</v>
+      </c>
+      <c r="I34">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J34">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.371955333333334</v>
+      </c>
+      <c r="N34">
+        <v>7.115866</v>
+      </c>
+      <c r="O34">
+        <v>0.08722431247720218</v>
+      </c>
+      <c r="P34">
+        <v>0.08722431247720218</v>
+      </c>
+      <c r="Q34">
+        <v>4.877394034353556</v>
+      </c>
+      <c r="R34">
+        <v>43.89654630918201</v>
+      </c>
+      <c r="S34">
+        <v>0.02390424815922061</v>
+      </c>
+      <c r="T34">
+        <v>0.02390424815922061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H35">
+        <v>6.168827</v>
+      </c>
+      <c r="I35">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J35">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.306061</v>
+      </c>
+      <c r="N35">
+        <v>15.918183</v>
+      </c>
+      <c r="O35">
+        <v>0.1951206737256277</v>
+      </c>
+      <c r="P35">
+        <v>0.1951206737256277</v>
+      </c>
+      <c r="Q35">
+        <v>10.910724120149</v>
+      </c>
+      <c r="R35">
+        <v>98.196517081341</v>
+      </c>
+      <c r="S35">
+        <v>0.05347377208563044</v>
+      </c>
+      <c r="T35">
+        <v>0.05347377208563044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H36">
+        <v>6.168827</v>
+      </c>
+      <c r="I36">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J36">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>9.866195333333334</v>
+      </c>
+      <c r="N36">
+        <v>29.598586</v>
+      </c>
+      <c r="O36">
+        <v>0.3628112606599592</v>
+      </c>
+      <c r="P36">
+        <v>0.3628112606599592</v>
+      </c>
+      <c r="Q36">
+        <v>20.28761738651356</v>
+      </c>
+      <c r="R36">
+        <v>182.588556478622</v>
+      </c>
+      <c r="S36">
+        <v>0.09943019513099779</v>
+      </c>
+      <c r="T36">
+        <v>0.09943019513099779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.056275666666667</v>
+      </c>
+      <c r="H37">
+        <v>6.168827</v>
+      </c>
+      <c r="I37">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="J37">
+        <v>0.2740548762189265</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2.583231666666667</v>
+      </c>
+      <c r="N37">
+        <v>7.749695</v>
+      </c>
+      <c r="O37">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="P37">
+        <v>0.09499361262325784</v>
+      </c>
+      <c r="Q37">
+        <v>5.311836417529444</v>
+      </c>
+      <c r="R37">
+        <v>47.806527757765</v>
+      </c>
+      <c r="S37">
+        <v>0.02603346274905558</v>
+      </c>
+      <c r="T37">
+        <v>0.02603346274905558</v>
       </c>
     </row>
   </sheetData>
